--- a/23 May/Book1.xlsx
+++ b/23 May/Book1.xlsx
@@ -5,20 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saksh\OneDrive\Desktop\Online Class\23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saksh\OneDrive\Desktop\AI-Online-Class-\23 May\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B889143A-F4F7-446B-94D7-2AE1DF564B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8DEF61-07B3-40B9-B3F6-45BC6CFF1041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12444" yWindow="0" windowWidth="10692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$12</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2:$B$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -227,13 +226,23 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
     <cx:plotArea>
       <cx:plotAreaRegion>
+        <cx:plotSurface>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="57150"/>
+          </cx:spPr>
+        </cx:plotSurface>
         <cx:series layoutId="boxWhisker" uniqueId="{356322A9-C400-4567-8902-9DD233CF7401}">
           <cx:dataLabels pos="r">
             <cx:visibility seriesName="0" categoryName="0" value="1"/>
@@ -255,6 +264,11 @@
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
+  <cx:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg2"/>
+    </a:solidFill>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -817,16 +831,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>232410</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>443424</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>140383</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>453390</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>136866</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>140384</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -862,8 +876,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="735330" y="4476750"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4077578" y="140383"/>
+              <a:ext cx="4570242" cy="2725616"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1162,7 +1176,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
